--- a/medicine/Psychotrope/Premetta/Premetta.xlsx
+++ b/medicine/Psychotrope/Premetta/Premetta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Premetta est un cépage de cuve noir.
@@ -512,7 +524,9 @@
           <t>Zone géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage Premetta est cultivé en Vallée d'Aoste dans les communes de Avise, Saint-Nicolas, Arvier, Introd, Villeneuve, Aymavilles, Saint-Pierre, Sarre, Jovençan, Gressan, Aosta et Chambave à une altitude allant jusqu'à 800 m.
 Sous le nom de bonda il est cultivé dans les communes de Quart, Nus, Saint-Denis et  Châtillon. Une première description du cépage sous ce nom date de 1833 (Lorenzo Gatta), on a longtemps cru les deux cépages différents et la confusion fut entretenue par l'existence d'un cépage suisse appelé lui aussi bonda.
@@ -545,7 +559,9 @@
           <t>Cycle végétatif</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les valeurs ont été relevées entre 1994 et 1998 dans le hameau Moncenis à une altitude de 750 m NN en exposition sud:
 Débourrement: 13 avril
@@ -579,9 +595,11 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bonda, neblou, neblu, prié rouge, prié rodzo, prié rosé, primetta, prometta, prumetta[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bonda, neblou, neblu, prié rouge, prié rodzo, prié rosé, primetta, prometta, prumetta.
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un cépage autochtone provenant de la Vallée d'Aoste.
 </t>
